--- a/notebooks/SEC61A1/input/SEC61A1_CVID15_individuals.xlsx
+++ b/notebooks/SEC61A1/input/SEC61A1_CVID15_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SEC61A1/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BE76F3-FB55-D548-A46D-D816146A3A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529AABA9-0D45-8B44-9554-5EF3B03BBDFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="9720" windowWidth="38160" windowHeight="10700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="9500" windowWidth="38160" windowHeight="10700" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="101">
   <si>
     <t>PMID</t>
   </si>
@@ -299,6 +299,30 @@
   </si>
   <si>
     <t>c.1141G&gt;T</t>
+  </si>
+  <si>
+    <t>Decreased specific antibody response to polysaccharide vaccine</t>
+  </si>
+  <si>
+    <t>HP:0410299</t>
+  </si>
+  <si>
+    <t>Partial absence of specific antibody response to tetanus vaccine</t>
+  </si>
+  <si>
+    <t>HP:0410297</t>
+  </si>
+  <si>
+    <t>Elevated circulating creatinine concentration</t>
+  </si>
+  <si>
+    <t>HP:0003259</t>
+  </si>
+  <si>
+    <t>Anemia</t>
+  </si>
+  <si>
+    <t>HP:0001903</t>
   </si>
 </sst>
 </file>
@@ -683,15 +707,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD13"/>
+  <dimension ref="A1:AH13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K11:K13"/>
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:34" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,8 +809,20 @@
       <c r="AD1" s="2" t="s">
         <v>63</v>
       </c>
+      <c r="AE1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -874,8 +913,20 @@
       <c r="AD2" t="s">
         <v>64</v>
       </c>
+      <c r="AE2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -963,8 +1014,20 @@
       <c r="AD3" t="s">
         <v>50</v>
       </c>
+      <c r="AE3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -1049,8 +1112,20 @@
       <c r="AD4" t="s">
         <v>50</v>
       </c>
+      <c r="AE4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -1135,8 +1210,20 @@
       <c r="AD5" t="s">
         <v>50</v>
       </c>
+      <c r="AE5" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1221,8 +1308,20 @@
       <c r="AD6" t="s">
         <v>65</v>
       </c>
+      <c r="AE6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>31</v>
       </c>
@@ -1307,8 +1406,20 @@
       <c r="AD7" t="s">
         <v>50</v>
       </c>
+      <c r="AE7" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -1393,8 +1504,20 @@
       <c r="AD8" t="s">
         <v>47</v>
       </c>
+      <c r="AE8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -1479,8 +1602,20 @@
       <c r="AD9" t="s">
         <v>50</v>
       </c>
+      <c r="AE9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1565,8 +1700,20 @@
       <c r="AD10" t="s">
         <v>50</v>
       </c>
+      <c r="AE10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -1651,8 +1798,20 @@
       <c r="AD11" t="s">
         <v>50</v>
       </c>
+      <c r="AE11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>47</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1740,8 +1899,20 @@
       <c r="AD12" t="s">
         <v>50</v>
       </c>
+      <c r="AE12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -1825,6 +1996,18 @@
       </c>
       <c r="AD13" t="s">
         <v>50</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
